--- a/admin.xlsx
+++ b/admin.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49" count="49">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31" count="31">
   <x:si>
     <x:t>ID</x:t>
   </x:si>
